--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuxiaohui/Documents/UnityProject/abb2d/Misc/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47244F-0380-F245-B1E5-94A80CF71AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3280" windowWidth="28100" windowHeight="17360" xr2:uid="{37EFB80E-CA54-034C-ABB9-AA7BBC36FF7A}"/>
+    <workbookView windowWidth="30980" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="EffectCfg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,29 +27,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>${name}</t>
   </si>
   <si>
+    <t>nEffectID</t>
+  </si>
+  <si>
+    <t>strDescEditor</t>
+  </si>
+  <si>
+    <t>fDelayDestroyTime</t>
+  </si>
+  <si>
+    <t>nAssetID</t>
+  </si>
+  <si>
+    <t>nIconAssetID</t>
+  </si>
+  <si>
+    <t>${link}</t>
+  </si>
+  <si>
+    <t>AssetCfg</t>
+  </si>
+  <si>
     <t>${desc}</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>指令类型</t>
+  </si>
+  <si>
     <t>${type}</t>
   </si>
   <si>
     <t>int32</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>${source}</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>${key}</t>
   </si>
   <si>
@@ -68,50 +92,406 @@
     <t>1</t>
   </si>
   <si>
-    <t>nCmdID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nAssetID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>playerbuffeffect</t>
+  </si>
+  <si>
+    <t>2257</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>playersubbuffeffect</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>poison sub</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>playerskill2</t>
+  </si>
+  <si>
+    <t>2319</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>紫色攻击特效</t>
+  </si>
+  <si>
+    <t>2339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,37 +499,476 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="55">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -198,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,26 +1050,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -283,23 +1085,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,138 +1246,297 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E055C1F-8A07-9242-A373-CC02569C2EF4}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.26666666666667" customWidth="1" style="50"/>
+    <col min="2" max="2" width="8.6" customWidth="1" style="50"/>
+    <col min="3" max="3" width="16.8666666666667" customWidth="1" style="50"/>
+    <col min="4" max="4" width="17.0666666666667" customWidth="1" style="50"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="50">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="E7" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="52"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="52"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="52"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>${name}</t>
   </si>
@@ -95,6 +95,9 @@
     <t>playerbuffeffect</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>2257</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>playersubbuffeffect</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>2232</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t>poison</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>2282</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>playerskill2</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
     <t>2319</t>
   </si>
   <si>
@@ -140,7 +152,34 @@
     <t>紫色攻击特效</t>
   </si>
   <si>
+    <t>0.45</t>
+  </si>
+  <si>
     <t>2339</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>默击中特效</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2646</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>爆炸1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2980</t>
   </si>
 </sst>
 </file>
@@ -153,7 +192,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,12 +326,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
@@ -677,10 +710,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
@@ -689,10 +722,10 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
@@ -701,10 +734,10 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
@@ -713,10 +746,10 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
@@ -725,10 +758,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
@@ -737,10 +770,10 @@
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
@@ -826,10 +859,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
@@ -838,10 +871,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
@@ -850,10 +883,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
@@ -862,10 +895,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
@@ -874,10 +907,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
@@ -886,10 +919,10 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
@@ -1255,7 +1288,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1343,7 +1376,9 @@
       <c r="C5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="51" t="s">
         <v>16</v>
       </c>
@@ -1368,11 +1403,11 @@
       <c r="C7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="50">
-        <v>3</v>
+      <c r="D7" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1380,13 +1415,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1394,13 +1432,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1408,13 +1449,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1422,13 +1466,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1436,31 +1483,51 @@
         <v>19</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="50"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="50"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="A13" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="50"/>
     </row>
     <row r="15">

--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>${name}</t>
   </si>
@@ -95,7 +95,7 @@
     <t>playerbuffeffect</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>2257</t>
@@ -107,9 +107,6 @@
     <t>playersubbuffeffect</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>2232</t>
   </si>
   <si>
@@ -119,18 +116,18 @@
     <t>poison</t>
   </si>
   <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>poison sub</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>poison sub</t>
-  </si>
-  <si>
     <t>2283</t>
   </si>
   <si>
@@ -180,6 +177,27 @@
   </si>
   <si>
     <t>2980</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>爆炸击中特效</t>
+  </si>
+  <si>
+    <t>3340</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>爆炸buff</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>3358</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1432,16 +1450,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="D9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1449,16 +1467,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="E10" s="50" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1466,16 +1484,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="E11" s="50" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1483,16 +1501,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="D12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="E12" s="50" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -1500,16 +1518,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="D13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="E13" s="50" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1517,33 +1535,53 @@
         <v>19</v>
       </c>
       <c r="B14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="D14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="E14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="50"/>
     </row>
     <row r="16">
-      <c r="A16" s="52"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>56</v>
+      </c>
       <c r="F16" s="50"/>
     </row>
     <row r="17">

--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>${name}</t>
   </si>
@@ -95,10 +95,10 @@
     <t>playerbuffeffect</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2257</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3351</t>
   </si>
   <si>
     <t>2</t>
@@ -107,7 +107,7 @@
     <t>playersubbuffeffect</t>
   </si>
   <si>
-    <t>2232</t>
+    <t>3299</t>
   </si>
   <si>
     <t>3</t>
@@ -116,7 +116,10 @@
     <t>poison</t>
   </si>
   <si>
-    <t>2282</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3405</t>
   </si>
   <si>
     <t>4</t>
@@ -125,10 +128,7 @@
     <t>poison sub</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2283</t>
+    <t>3423</t>
   </si>
   <si>
     <t>5</t>
@@ -140,7 +140,7 @@
     <t>0.6</t>
   </si>
   <si>
-    <t>2319</t>
+    <t>3485</t>
   </si>
   <si>
     <t>6</t>
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>3358</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>小型爆炸</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>大型爆炸</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3397</t>
   </si>
 </sst>
 </file>
@@ -1456,10 +1477,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1467,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>33</v>
@@ -1585,19 +1606,39 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="50"/>
     </row>
     <row r="18">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>63</v>
+      </c>
       <c r="F18" s="50"/>
     </row>
     <row r="19">

--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>${name}</t>
   </si>
@@ -219,6 +219,111 @@
   </si>
   <si>
     <t>3397</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>下雨buff</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>下雨循环提示</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>闪电受击提示</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>闪电效果buff</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>玩家增益2</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>水滴提示2</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>脚底板特效</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>脚底板buff循环</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>sword1-1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>sword1-2</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>sword1-3</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>sword2-1</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>sword2-2</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
 </sst>
 </file>
@@ -819,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,16 +1078,25 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,362 +1438,538 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.26666666666667" customWidth="1" style="50"/>
-    <col min="2" max="2" width="8.6" customWidth="1" style="50"/>
-    <col min="3" max="3" width="16.8666666666667" customWidth="1" style="50"/>
-    <col min="4" max="4" width="17.0666666666667" customWidth="1" style="50"/>
+    <col min="1" max="1" width="9.26666666666667" customWidth="1" style="53"/>
+    <col min="2" max="2" width="8.6" customWidth="1" style="53"/>
+    <col min="3" max="3" width="16.8666666666667" customWidth="1" style="53"/>
+    <col min="4" max="4" width="17.0666666666667" customWidth="1" style="53"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="54">
         <v>1</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="53" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="50"/>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="50"/>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="50"/>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="50"/>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="50"/>
     </row>
     <row r="19">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="A19" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="A20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="52"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="A21" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="52"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="A22" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="52"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="A23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>${name}</t>
   </si>
@@ -149,7 +149,7 @@
     <t>紫色攻击特效</t>
   </si>
   <si>
-    <t>0.45</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>2339</t>
@@ -161,7 +161,7 @@
     <t>默击中特效</t>
   </si>
   <si>
-    <t>0.4</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>2646</t>
@@ -173,87 +173,84 @@
     <t>爆炸1</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2980</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>爆炸击中特效</t>
+  </si>
+  <si>
+    <t>3340</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>爆炸buff</t>
+  </si>
+  <si>
+    <t>3358</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>小型爆炸</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>大型爆炸</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3397</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>下雨buff</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>下雨循环提示</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>闪电受击提示</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>闪电效果buff</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>玩家增益2</t>
+  </si>
+  <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>2980</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>爆炸击中特效</t>
-  </si>
-  <si>
-    <t>3340</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>爆炸buff</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>3358</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>小型爆炸</t>
-  </si>
-  <si>
-    <t>3398</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>大型爆炸</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3397</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>下雨buff</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>下雨循环提示</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>闪电受击提示</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>闪电效果buff</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>玩家增益2</t>
-  </si>
-  <si>
     <t>2983</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>脚底板特效</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>sword1-1</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -324,6 +315,72 @@
   </si>
   <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>EffectSwordLight1_1Hit</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>EffectSwordLight1_2Hit</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>魔法石攻击特效范围</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>buff19-1</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>buff19-2</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>buff20-1</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>buff20-2</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -924,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1127,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1438,7 +1507,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -1446,529 +1515,648 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.26666666666667" customWidth="1" style="53"/>
-    <col min="2" max="2" width="8.6" customWidth="1" style="53"/>
-    <col min="3" max="3" width="16.8666666666667" customWidth="1" style="53"/>
-    <col min="4" max="4" width="17.0666666666667" customWidth="1" style="53"/>
+    <col min="1" max="1" width="9.26666666666667" customWidth="1" style="57"/>
+    <col min="2" max="2" width="8.6" customWidth="1" style="57"/>
+    <col min="3" max="3" width="16.8666666666667" customWidth="1" style="57"/>
+    <col min="4" max="4" width="17.0666666666667" customWidth="1" style="57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="58">
         <v>1</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="59" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="57" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="53" t="s">
+      <c r="E30" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="49" t="s">
+      <c r="E31" s="53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="53" t="s">
+    <row r="32">
+      <c r="A32" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C32" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="49" t="s">
+      <c r="D32" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="52" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Excel/EffectCfg.xlsx
+++ b/Misc/Excel/EffectCfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>${name}</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1513,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -2159,6 +2165,21 @@
         <v>117</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
